--- a/PM_29_12_2020/Progress Monitoring Kishoregonj/Kishoreganj/Kishoreganj/Package-27.xlsx
+++ b/PM_29_12_2020/Progress Monitoring Kishoregonj/Kishoreganj/Kishoreganj/Package-27.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Office Work\Progress Monitoring\Kishoreganj\Kishoreganj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\PM_29_12_2020\Progress Monitoring Kishoregonj\Kishoreganj\Kishoreganj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="348">
   <si>
     <t>Sl No</t>
   </si>
@@ -937,6 +937,147 @@
   </si>
   <si>
     <t>Chunati CW</t>
+  </si>
+  <si>
+    <t>Construction of B.M. Pillars</t>
+  </si>
+  <si>
+    <t>Filling of expansion joints </t>
+  </si>
+  <si>
+    <t>Installation of pizeometer</t>
+  </si>
+  <si>
+    <t>Earth work in excavation of foundation trenches</t>
+  </si>
+  <si>
+    <t>Shoring for slope protection of foundation trench</t>
+  </si>
+  <si>
+    <t>Bailing out of water with all leads and lifts</t>
+  </si>
+  <si>
+    <t>Supplying at site steel sheet piles </t>
+  </si>
+  <si>
+    <t>Cutting of steel sheet piles</t>
+  </si>
+  <si>
+    <t>Construction of sump well with dug holes of size 1.80m x 2.0m</t>
+  </si>
+  <si>
+    <t>Driving steel sheet piles of various sections</t>
+  </si>
+  <si>
+    <t>Provide 1 (one) coat of Zinc phosphate as primary coat</t>
+  </si>
+  <si>
+    <t>Epoxy paint 2 coats of approved colour and specification over a priming coat to gate</t>
+  </si>
+  <si>
+    <t>Supplying and placing 20mm thick hessian cloth impregnated with bitumen</t>
+  </si>
+  <si>
+    <t>Supplying and laying single layer pholythene shee</t>
+  </si>
+  <si>
+    <t>Cement concrete work in leanest mix. 1:3:6</t>
+  </si>
+  <si>
+    <t>Cement concrete work in leanest mix. 1:4:8</t>
+  </si>
+  <si>
+    <t>Reinforced Cement Concrete Work in leanest mix. 1:1.5:3</t>
+  </si>
+  <si>
+    <t>M.S. Work for reinforcement with twisted M.S. bar</t>
+  </si>
+  <si>
+    <t>Form work for centering and water tight shuttering:Footing, footing beams, girder beams</t>
+  </si>
+  <si>
+    <t>Form work for centering and water tight shuttering:Vertical and inclined walls, columns, piers with 60-80mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form work for centering and water tight shuttering:Deck slab, operating deck slab, top slab of barrel </t>
+  </si>
+  <si>
+    <t>Supply and fitting and fixing 23cm wide P.V.C water stops</t>
+  </si>
+  <si>
+    <t>Supplying and filling sand in foundation of hydraulic structures, buildings and in protective works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplying and laying dry 1st class or pick jhama chips as filter in two layers:40-520-20: Well graded between 40mm to 20mm size. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplying and laying dry 1st class or pick jhama chips as filter in two layers:40-520-20: Well graded between 20mm to 5mm size. </t>
+  </si>
+  <si>
+    <t>Geotextile Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplying and laying sand as filter layers: 2.0 to 2.5 </t>
+  </si>
+  <si>
+    <t>CC block size 30cm x 30cm x 30cm</t>
+  </si>
+  <si>
+    <t>CC block size  40cm x 40cm x 40cm</t>
+  </si>
+  <si>
+    <t>Labour charge for protective works in laying C.C. blocks of different sizes</t>
+  </si>
+  <si>
+    <t>M.S. Work in plates, angles, channels, flat bars, Tees etc</t>
+  </si>
+  <si>
+    <t>Supplying, laying, fitting and fixing of different dia G.I. pipes</t>
+  </si>
+  <si>
+    <t>Manufacturing, supplying, Installation and fitting, fixing the vertical steel lift gate/flap</t>
+  </si>
+  <si>
+    <t>Labour charge for fitting and fixing of M.S. vertical lift gate/flap gate shutters of different size</t>
+  </si>
+  <si>
+    <t>Manufacturing, supplying and Installation of Padestal type lifting device for slide gate</t>
+  </si>
+  <si>
+    <t>Manufacturing &amp; Supplying of M.S. Flap Gate shutter of 8mm thick M.S. skin plate</t>
+  </si>
+  <si>
+    <t>Earth work by manual labour in resectioning of embankment/ canal bank/ river slopes/road/compound etc</t>
+  </si>
+  <si>
+    <t>Earth work by manual labour in all kinds of soil in excavation or reexcavation of channels</t>
+  </si>
+  <si>
+    <t>Extra rate for every additional lift of 1.0m or part thereof beyond the initial lift of 1.5m: 2 nos. lifts</t>
+  </si>
+  <si>
+    <t>Extra rate for every additional lift of 1.0m or part thereof beyond the initial lift of 1.5m: 3 nos. lifts</t>
+  </si>
+  <si>
+    <t>Earth work by manual labour with clayey soil</t>
+  </si>
+  <si>
+    <t>Constructing at site, cement mortar gauge on masonry wall,</t>
+  </si>
+  <si>
+    <t>Back filling in hydraulic structures including all leads and lifts</t>
+  </si>
+  <si>
+    <t>Back filling in hydraulic structures and slope building in protective works</t>
+  </si>
+  <si>
+    <t>Earth work by manual labour in all kinds of soil in removing the cross bundh/ring bundh</t>
+  </si>
+  <si>
+    <t>Supplying pressure treated wooden fall boards/stop logs of different size </t>
+  </si>
+  <si>
+    <t>Fine dressing and close turfing of the slopes and the crest of embankment with 75mm thick</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1107,18 +1248,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1130,18 +1259,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1155,10 +1272,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1479,36 +1613,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="26" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
       <c r="I2" t="s">
         <v>293</v>
       </c>
@@ -2879,60 +3013,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="D43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="16"/>
+    <col min="2" max="2" width="12.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="126.42578125" style="16" customWidth="1"/>
     <col min="6" max="10" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="25" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
       <c r="K2" t="s">
         <v>293</v>
       </c>
@@ -2941,32 +3076,34 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="5">
         <v>124.461</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="21">
         <v>2</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="21">
         <v>2</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="21">
         <v>2</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="21">
         <v>2</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="21">
         <v>2</v>
       </c>
       <c r="M3">
@@ -2974,13 +3111,15 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>111</v>
       </c>
@@ -3007,11 +3146,13 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="20" t="s">
+        <v>302</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>34</v>
       </c>
@@ -3038,13 +3179,15 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="20" t="s">
+        <v>303</v>
+      </c>
       <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
@@ -3071,13 +3214,15 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="A7" s="20">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="31" t="s">
+        <v>304</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>123</v>
       </c>
@@ -3104,13 +3249,15 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="31" t="s">
+        <v>305</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>111</v>
       </c>
@@ -3137,13 +3284,15 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="20">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="31" t="s">
+        <v>306</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>123</v>
       </c>
@@ -3170,13 +3319,15 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10" s="20">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="31" t="s">
+        <v>307</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>136</v>
       </c>
@@ -3203,13 +3354,15 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="20">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="31" t="s">
+        <v>308</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
@@ -3236,13 +3389,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="20">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>28</v>
       </c>
@@ -3269,32 +3424,34 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="22">
         <v>11</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="31" t="s">
+      <c r="C13" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="23">
         <v>1709.0509999999999</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="23">
         <v>81.900000000000006</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="23">
         <v>73.53</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="23">
         <v>165.9</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="23">
         <v>0</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="23">
         <v>101.85</v>
       </c>
       <c r="M13">
@@ -3302,32 +3459,34 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="22">
         <v>12</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="33" t="s">
+      <c r="C14" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="24">
         <v>249.101</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="23">
         <v>311.22000000000003</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="23">
         <v>279.3</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="23">
         <v>630.41999999999996</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="23">
         <v>0</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="23">
         <v>387.03</v>
       </c>
       <c r="M14">
@@ -3335,32 +3494,34 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="22">
         <v>13</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="23">
         <v>428.82100000000003</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="23">
         <v>35.299999999999997</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="23">
         <v>35.299999999999997</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="23">
         <v>26.3</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="23">
         <v>0</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="23">
         <v>0</v>
       </c>
       <c r="M15">
@@ -3368,13 +3529,15 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+      <c r="A16" s="17">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="31" t="s">
+        <v>313</v>
+      </c>
       <c r="D16" s="3" t="s">
         <v>38</v>
       </c>
@@ -3401,13 +3564,15 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="A17" s="17">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="18" t="s">
+        <v>314</v>
+      </c>
       <c r="D17" s="3" t="s">
         <v>38</v>
       </c>
@@ -3434,13 +3599,15 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="17">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="18" t="s">
+        <v>315</v>
+      </c>
       <c r="D18" s="3" t="s">
         <v>123</v>
       </c>
@@ -3467,13 +3634,15 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+      <c r="A19" s="17">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="18" t="s">
+        <v>316</v>
+      </c>
       <c r="D19" s="3" t="s">
         <v>123</v>
       </c>
@@ -3500,13 +3669,15 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
+      <c r="A20" s="17">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="18" t="s">
+        <v>317</v>
+      </c>
       <c r="D20" s="3" t="s">
         <v>123</v>
       </c>
@@ -3533,13 +3704,15 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
+      <c r="A21" s="17">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="18" t="s">
+        <v>318</v>
+      </c>
       <c r="D21" s="3" t="s">
         <v>178</v>
       </c>
@@ -3566,13 +3739,15 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="A22" s="17">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="18" t="s">
+        <v>319</v>
+      </c>
       <c r="D22" s="3" t="s">
         <v>38</v>
       </c>
@@ -3599,13 +3774,15 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
+      <c r="A23" s="17">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="24"/>
+      <c r="C23" s="18" t="s">
+        <v>320</v>
+      </c>
       <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
@@ -3632,13 +3809,15 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="A24" s="17">
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="18" t="s">
+        <v>321</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>38</v>
       </c>
@@ -3665,13 +3844,15 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
+      <c r="A25" s="17">
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="18" t="s">
+        <v>322</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
       </c>
@@ -3698,13 +3879,15 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
+      <c r="A26" s="17">
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="18" t="s">
+        <v>323</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>123</v>
       </c>
@@ -3731,13 +3914,15 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
+      <c r="A27" s="17">
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="18" t="s">
+        <v>324</v>
+      </c>
       <c r="D27" s="2" t="s">
         <v>123</v>
       </c>
@@ -3764,13 +3949,15 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
+      <c r="A28" s="17">
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="18" t="s">
+        <v>325</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>123</v>
       </c>
@@ -3797,13 +3984,15 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
+      <c r="A29" s="17">
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="18" t="s">
+        <v>326</v>
+      </c>
       <c r="D29" s="2" t="s">
         <v>38</v>
       </c>
@@ -3830,13 +4019,15 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
+      <c r="A30" s="17">
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="18" t="s">
+        <v>327</v>
+      </c>
       <c r="D30" s="2" t="s">
         <v>123</v>
       </c>
@@ -3863,13 +4054,15 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
+      <c r="A31" s="17">
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="18" t="s">
+        <v>328</v>
+      </c>
       <c r="D31" s="2" t="s">
         <v>28</v>
       </c>
@@ -3896,13 +4089,15 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21">
+      <c r="A32" s="17">
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="22"/>
+      <c r="C32" s="18" t="s">
+        <v>329</v>
+      </c>
       <c r="D32" s="2" t="s">
         <v>28</v>
       </c>
@@ -3929,13 +4124,15 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
+      <c r="A33" s="17">
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="22"/>
+      <c r="C33" s="18" t="s">
+        <v>330</v>
+      </c>
       <c r="D33" s="2" t="s">
         <v>123</v>
       </c>
@@ -3962,13 +4159,15 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21">
+      <c r="A34" s="17">
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="22"/>
+      <c r="C34" s="18" t="s">
+        <v>331</v>
+      </c>
       <c r="D34" s="2" t="s">
         <v>178</v>
       </c>
@@ -3995,13 +4194,15 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21">
+      <c r="A35" s="17">
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C35" s="22"/>
+      <c r="C35" s="18" t="s">
+        <v>332</v>
+      </c>
       <c r="D35" s="2" t="s">
         <v>34</v>
       </c>
@@ -4028,13 +4229,15 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
+      <c r="A36" s="17">
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36" s="18" t="s">
+        <v>333</v>
+      </c>
       <c r="D36" s="2" t="s">
         <v>28</v>
       </c>
@@ -4061,13 +4264,15 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
+      <c r="A37" s="17">
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37" s="18" t="s">
+        <v>334</v>
+      </c>
       <c r="D37" s="3" t="s">
         <v>28</v>
       </c>
@@ -4094,13 +4299,15 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+      <c r="A38" s="17">
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="22"/>
+      <c r="C38" s="18" t="s">
+        <v>335</v>
+      </c>
       <c r="D38" s="3" t="s">
         <v>28</v>
       </c>
@@ -4127,13 +4334,15 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21">
+      <c r="A39" s="17">
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="22"/>
+      <c r="C39" s="18" t="s">
+        <v>336</v>
+      </c>
       <c r="D39" s="3" t="s">
         <v>28</v>
       </c>
@@ -4160,13 +4369,15 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
+      <c r="A40" s="17">
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C40" s="25"/>
+      <c r="C40" s="18" t="s">
+        <v>337</v>
+      </c>
       <c r="D40" s="2" t="s">
         <v>123</v>
       </c>
@@ -4193,13 +4404,15 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
+      <c r="A41" s="17">
         <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="25"/>
+      <c r="C41" s="18" t="s">
+        <v>338</v>
+      </c>
       <c r="D41" s="2" t="s">
         <v>123</v>
       </c>
@@ -4226,12 +4439,14 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
+      <c r="C42" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>266</v>
       </c>
       <c r="E42" s="1">
@@ -4254,12 +4469,14 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1" t="s">
+      <c r="C43" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>266</v>
       </c>
       <c r="E43" s="1">
@@ -4282,12 +4499,14 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2" t="s">
+      <c r="A44" s="2"/>
+      <c r="B44" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
+      <c r="C44" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E44" s="1">
@@ -4310,12 +4529,14 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2" t="s">
+      <c r="A45" s="2"/>
+      <c r="B45" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
+      <c r="C45" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="1">
@@ -4338,12 +4559,14 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2" t="s">
+      <c r="A46" s="2"/>
+      <c r="B46" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
+      <c r="C46" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E46" s="1">
@@ -4366,12 +4589,14 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="2"/>
+      <c r="B47" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
+      <c r="C47" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E47" s="1">
@@ -4394,12 +4619,14 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1" t="s">
+      <c r="C48" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E48" s="1">
@@ -4422,12 +4649,14 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="2"/>
+      <c r="B49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1" t="s">
+      <c r="C49" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E49" s="1">
@@ -4450,12 +4679,14 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="2"/>
+      <c r="B50" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1" t="s">
+      <c r="C50" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E50" s="1">
@@ -4500,39 +4731,39 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F52" s="20">
+      <c r="F52" s="16">
         <f>ROUND(F51/100000,2)</f>
         <v>156.62</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G52" s="16">
         <f t="shared" ref="G52:J52" si="1">ROUND(G51/100000,2)</f>
         <v>148.01</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="16">
         <f t="shared" si="1"/>
         <v>406.93</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="16">
         <f t="shared" si="1"/>
         <v>41.87</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="16">
         <f t="shared" si="1"/>
         <v>159.19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" orientation="portrait" r:id="rId1"/>
@@ -4555,32 +4786,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="30"/>
       <c r="H2" t="s">
         <v>293</v>
       </c>
@@ -7333,18 +7564,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="1" max="1" width="9.140625" style="16"/>
+    <col min="4" max="4" width="68.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="20">
+      <c r="A1" s="16">
         <v>9</v>
       </c>
       <c r="B1" t="s">
@@ -7373,7 +7605,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="16">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -7402,7 +7634,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="16">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -7431,7 +7663,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="16">
         <v>12</v>
       </c>
       <c r="B4" t="s">
@@ -7460,7 +7692,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="16">
         <v>13</v>
       </c>
       <c r="B5" t="s">
@@ -7489,7 +7721,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="16">
         <v>14</v>
       </c>
       <c r="B6" t="s">
@@ -7518,7 +7750,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="16">
         <v>15</v>
       </c>
       <c r="B7" t="s">
@@ -7547,7 +7779,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="16">
         <v>16</v>
       </c>
       <c r="B8" t="s">
@@ -7576,7 +7808,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="16">
         <v>17</v>
       </c>
       <c r="B9" t="s">
@@ -7605,7 +7837,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="16">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -7634,7 +7866,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="16">
         <v>19</v>
       </c>
       <c r="B11" t="s">
@@ -7663,7 +7895,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="16">
         <v>20</v>
       </c>
       <c r="B12" t="s">
@@ -7692,7 +7924,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="16">
         <v>21</v>
       </c>
       <c r="B13" t="s">
@@ -7721,7 +7953,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="A14" s="16">
         <v>22</v>
       </c>
       <c r="B14" t="s">
@@ -7750,7 +7982,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="16">
         <v>23</v>
       </c>
       <c r="B15" t="s">
@@ -7779,7 +8011,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="16">
         <v>24</v>
       </c>
       <c r="B16" t="s">
@@ -7808,7 +8040,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="16">
         <v>25</v>
       </c>
       <c r="B17" t="s">
@@ -7837,7 +8069,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="16">
         <v>26</v>
       </c>
       <c r="B18" t="s">
@@ -7866,7 +8098,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="16">
         <v>27</v>
       </c>
       <c r="B19" t="s">
@@ -7895,7 +8127,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="16" t="s">
         <v>181</v>
       </c>
       <c r="B20" t="s">
@@ -7924,7 +8156,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="16" t="s">
         <v>187</v>
       </c>
       <c r="B21" t="s">
@@ -7953,7 +8185,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="16" t="s">
         <v>191</v>
       </c>
       <c r="B22" t="s">
@@ -7982,7 +8214,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="16">
         <v>29</v>
       </c>
       <c r="B23" t="s">
@@ -8011,7 +8243,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="16">
         <v>30</v>
       </c>
       <c r="B24" t="s">
@@ -8040,7 +8272,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="16" t="s">
         <v>202</v>
       </c>
       <c r="B25" t="s">
@@ -8069,7 +8301,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="16" t="s">
         <v>207</v>
       </c>
       <c r="B26" t="s">
@@ -8098,7 +8330,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+      <c r="A27" s="16">
         <v>32</v>
       </c>
       <c r="B27" t="s">
@@ -8127,7 +8359,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="16">
         <v>33</v>
       </c>
       <c r="B28" t="s">
@@ -8156,7 +8388,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="16" t="s">
         <v>219</v>
       </c>
       <c r="B29" t="s">
@@ -8185,7 +8417,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="16" t="s">
         <v>224</v>
       </c>
       <c r="B30" t="s">
@@ -8214,7 +8446,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="16">
         <v>35</v>
       </c>
       <c r="B31" t="s">
@@ -8243,7 +8475,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+      <c r="A32" s="16">
         <v>36</v>
       </c>
       <c r="B32" t="s">
@@ -8272,7 +8504,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+      <c r="A33" s="16">
         <v>37</v>
       </c>
       <c r="B33" t="s">
@@ -8301,7 +8533,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+      <c r="A34" s="16">
         <v>38</v>
       </c>
       <c r="B34" t="s">
@@ -8330,7 +8562,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
+      <c r="A35" s="16">
         <v>39</v>
       </c>
       <c r="B35" t="s">
@@ -8359,7 +8591,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+      <c r="A36" s="16">
         <v>40</v>
       </c>
       <c r="B36" t="s">
@@ -8388,7 +8620,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+      <c r="A37" s="16">
         <v>41</v>
       </c>
       <c r="B37" t="s">
@@ -8417,7 +8649,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
+      <c r="A38" s="16">
         <v>42</v>
       </c>
       <c r="B38" t="s">
@@ -8446,7 +8678,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
+      <c r="A39" s="16">
         <v>43</v>
       </c>
       <c r="B39" t="s">
@@ -8475,7 +8707,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
+      <c r="A40" s="16">
         <v>44</v>
       </c>
       <c r="B40" t="s">
@@ -8504,7 +8736,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="16" t="s">
         <v>264</v>
       </c>
       <c r="B41" t="s">
@@ -8533,7 +8765,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="16" t="s">
         <v>269</v>
       </c>
       <c r="B42" t="s">
@@ -8562,7 +8794,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
+      <c r="A43" s="16">
         <v>46</v>
       </c>
       <c r="B43" t="s">
@@ -8591,7 +8823,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
+      <c r="A44" s="16">
         <v>47</v>
       </c>
       <c r="B44" t="s">
@@ -8620,7 +8852,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
+      <c r="A45" s="16">
         <v>48</v>
       </c>
       <c r="B45" t="s">
@@ -8649,7 +8881,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
+      <c r="A46" s="16">
         <v>49</v>
       </c>
       <c r="B46" t="s">
@@ -8678,7 +8910,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
+      <c r="A47" s="16">
         <v>50</v>
       </c>
       <c r="B47" t="s">
@@ -8707,7 +8939,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
+      <c r="A48" s="16">
         <v>51</v>
       </c>
       <c r="B48" t="s">
@@ -8736,7 +8968,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
+      <c r="A49" s="16">
         <v>52</v>
       </c>
       <c r="B49" t="s">
@@ -8806,7 +9038,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="20">
+      <c r="A1" s="16">
         <v>9</v>
       </c>
       <c r="B1" t="s">
@@ -8830,12 +9062,12 @@
       <c r="H1" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="20">
+      <c r="I1" s="16">
         <v>1244.6099999999999</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="16">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -8859,12 +9091,12 @@
       <c r="H2" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="16">
         <v>1515707.25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="16">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -8888,12 +9120,12 @@
       <c r="H3" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="16">
         <v>4241.2460000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="16">
         <v>12</v>
       </c>
       <c r="B4" t="s">
@@ -8917,12 +9149,12 @@
       <c r="H4" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="16">
         <v>54125.936000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="16">
         <v>13</v>
       </c>
       <c r="B5" t="s">
@@ -8946,12 +9178,12 @@
       <c r="H5" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="16">
         <v>9043139.6809999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="16">
         <v>14</v>
       </c>
       <c r="B6" t="s">
@@ -8975,12 +9207,12 @@
       <c r="H6" t="s">
         <v>128</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="16">
         <v>919042.68599999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="16">
         <v>15</v>
       </c>
       <c r="B7" t="s">
@@ -9004,12 +9236,12 @@
       <c r="H7" t="s">
         <v>132</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="16">
         <v>1321396.0160000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="16">
         <v>16</v>
       </c>
       <c r="B8" t="s">
@@ -9033,12 +9265,12 @@
       <c r="H8" t="s">
         <v>137</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="16">
         <v>6731944.0580000002</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="16">
         <v>17</v>
       </c>
       <c r="B9" t="s">
@@ -9062,12 +9294,12 @@
       <c r="H9" t="s">
         <v>141</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="16">
         <v>11947.800999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="16">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -9091,12 +9323,12 @@
       <c r="H10" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="16">
         <v>958106.446</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="16">
         <v>19</v>
       </c>
       <c r="B11" t="s">
@@ -9120,12 +9352,12 @@
       <c r="H11" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="16">
         <v>723184.93099999998</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="16">
         <v>20</v>
       </c>
       <c r="B12" t="s">
@@ -9149,12 +9381,12 @@
       <c r="H12" t="s">
         <v>151</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="16">
         <v>400546.935</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="16">
         <v>21</v>
       </c>
       <c r="B13" t="s">
@@ -9178,12 +9410,12 @@
       <c r="H13" t="s">
         <v>154</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="16">
         <v>42910.402000000002</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="A14" s="16">
         <v>22</v>
       </c>
       <c r="B14" t="s">
@@ -9207,12 +9439,12 @@
       <c r="H14" t="s">
         <v>157</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="16">
         <v>103351.269</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="16">
         <v>23</v>
       </c>
       <c r="B15" t="s">
@@ -9236,12 +9468,12 @@
       <c r="H15" t="s">
         <v>161</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="16">
         <v>35843.493000000002</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="16">
         <v>24</v>
       </c>
       <c r="B16" t="s">
@@ -9265,12 +9497,12 @@
       <c r="H16" t="s">
         <v>165</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="16">
         <v>1608939.9439999999</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="16">
         <v>25</v>
       </c>
       <c r="B17" t="s">
@@ -9294,12 +9526,12 @@
       <c r="H17" t="s">
         <v>169</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="16">
         <v>74953.985000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="16">
         <v>26</v>
       </c>
       <c r="B18" t="s">
@@ -9323,12 +9555,12 @@
       <c r="H18" t="s">
         <v>174</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="16">
         <v>13518926.864</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="16">
         <v>27</v>
       </c>
       <c r="B19" t="s">
@@ -9352,12 +9584,12 @@
       <c r="H19" t="s">
         <v>179</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="16">
         <v>10159040.164000001</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="16" t="s">
         <v>181</v>
       </c>
       <c r="B20" t="s">
@@ -9381,12 +9613,12 @@
       <c r="H20" t="s">
         <v>185</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="16">
         <v>758394.14800000004</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="16" t="s">
         <v>187</v>
       </c>
       <c r="B21" t="s">
@@ -9410,12 +9642,12 @@
       <c r="H21" t="s">
         <v>189</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="16">
         <v>2332124.9040000001</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="16" t="s">
         <v>191</v>
       </c>
       <c r="B22" t="s">
@@ -9439,12 +9671,12 @@
       <c r="H22" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="16">
         <v>55018.457000000002</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="16">
         <v>29</v>
       </c>
       <c r="B23" t="s">
@@ -9468,12 +9700,12 @@
       <c r="H23" t="s">
         <v>196</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="16">
         <v>33347.023999999998</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="16">
         <v>30</v>
       </c>
       <c r="B24" t="s">
@@ -9497,12 +9729,12 @@
       <c r="H24" t="s">
         <v>200</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="16">
         <v>3118684.2280000001</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="16" t="s">
         <v>202</v>
       </c>
       <c r="B25" t="s">
@@ -9526,12 +9758,12 @@
       <c r="H25" t="s">
         <v>205</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="16">
         <v>734716.18400000001</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="16" t="s">
         <v>207</v>
       </c>
       <c r="B26" t="s">
@@ -9555,12 +9787,12 @@
       <c r="H26" t="s">
         <v>209</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="16">
         <v>841410.36100000003</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+      <c r="A27" s="16">
         <v>32</v>
       </c>
       <c r="B27" t="s">
@@ -9584,12 +9816,12 @@
       <c r="H27" t="s">
         <v>213</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="16">
         <v>531907.98199999996</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="16">
         <v>33</v>
       </c>
       <c r="B28" t="s">
@@ -9613,12 +9845,12 @@
       <c r="H28" t="s">
         <v>217</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="16">
         <v>39162.250999999997</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="16" t="s">
         <v>219</v>
       </c>
       <c r="B29" t="s">
@@ -9642,12 +9874,12 @@
       <c r="H29" t="s">
         <v>222</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="16">
         <v>8342175.9560000002</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="16" t="s">
         <v>224</v>
       </c>
       <c r="B30" t="s">
@@ -9671,12 +9903,12 @@
       <c r="H30" t="s">
         <v>226</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="16">
         <v>4674837.7290000003</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="16">
         <v>35</v>
       </c>
       <c r="B31" t="s">
@@ -9700,12 +9932,12 @@
       <c r="H31" t="s">
         <v>230</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="16">
         <v>1312418.8219999999</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+      <c r="A32" s="16">
         <v>36</v>
       </c>
       <c r="B32" t="s">
@@ -9729,12 +9961,12 @@
       <c r="H32" t="s">
         <v>233</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="16">
         <v>521803.26</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+      <c r="A33" s="16">
         <v>37</v>
       </c>
       <c r="B33" t="s">
@@ -9758,12 +9990,12 @@
       <c r="H33" t="s">
         <v>237</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="16">
         <v>15528.691999999999</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+      <c r="A34" s="16">
         <v>38</v>
       </c>
       <c r="B34" t="s">
@@ -9787,12 +10019,12 @@
       <c r="H34" t="s">
         <v>241</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="16">
         <v>218784.86199999999</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
+      <c r="A35" s="16">
         <v>39</v>
       </c>
       <c r="B35" t="s">
@@ -9816,12 +10048,12 @@
       <c r="H35" t="s">
         <v>245</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="16">
         <v>25846.022000000001</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+      <c r="A36" s="16">
         <v>40</v>
       </c>
       <c r="B36" t="s">
@@ -9845,12 +10077,12 @@
       <c r="H36" t="s">
         <v>248</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="16">
         <v>186074.54199999999</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+      <c r="A37" s="16">
         <v>41</v>
       </c>
       <c r="B37" t="s">
@@ -9874,12 +10106,12 @@
       <c r="H37" t="s">
         <v>252</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="16">
         <v>317673.68400000001</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
+      <c r="A38" s="16">
         <v>43</v>
       </c>
       <c r="B38" t="s">
@@ -9903,12 +10135,12 @@
       <c r="H38" t="s">
         <v>259</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="16">
         <v>7204266.1579999998</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
+      <c r="A39" s="16">
         <v>44</v>
       </c>
       <c r="B39" t="s">
@@ -9932,12 +10164,12 @@
       <c r="H39" t="s">
         <v>262</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="16">
         <v>4709420.1629999997</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="16" t="s">
         <v>264</v>
       </c>
       <c r="B40" t="s">
@@ -9961,12 +10193,12 @@
       <c r="H40" t="s">
         <v>267</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="16">
         <v>154611.11300000001</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="16" t="s">
         <v>269</v>
       </c>
       <c r="B41" t="s">
@@ -9990,12 +10222,12 @@
       <c r="H41" t="s">
         <v>271</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I41" s="16">
         <v>167613.647</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
+      <c r="A42" s="16">
         <v>46</v>
       </c>
       <c r="B42" t="s">
@@ -10019,12 +10251,12 @@
       <c r="H42" t="s">
         <v>262</v>
       </c>
-      <c r="I42" s="20">
+      <c r="I42" s="16">
         <v>1174000.5419999999</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
+      <c r="A43" s="16">
         <v>47</v>
       </c>
       <c r="B43" t="s">
@@ -10048,12 +10280,12 @@
       <c r="H43" t="s">
         <v>276</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="16">
         <v>1969.62</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
+      <c r="A44" s="16">
         <v>48</v>
       </c>
       <c r="B44" t="s">
@@ -10077,12 +10309,12 @@
       <c r="H44" t="s">
         <v>280</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="16">
         <v>3872621.426</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
+      <c r="A45" s="16">
         <v>49</v>
       </c>
       <c r="B45" t="s">
@@ -10106,12 +10338,12 @@
       <c r="H45" t="s">
         <v>283</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="16">
         <v>930279.09600000002</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
+      <c r="A46" s="16">
         <v>50</v>
       </c>
       <c r="B46" t="s">
@@ -10135,12 +10367,12 @@
       <c r="H46" t="s">
         <v>262</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="16">
         <v>677464.36399999994</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
+      <c r="A47" s="16">
         <v>51</v>
       </c>
       <c r="B47" t="s">
@@ -10164,12 +10396,12 @@
       <c r="H47" t="s">
         <v>288</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="16">
         <v>484945.39899999998</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
+      <c r="A48" s="16">
         <v>52</v>
       </c>
       <c r="B48" t="s">
@@ -10193,7 +10425,7 @@
       <c r="H48" t="s">
         <v>291</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="16">
         <v>275110.02399999998</v>
       </c>
     </row>
